--- a/Data/EC/NIT-9014765872.xlsx
+++ b/Data/EC/NIT-9014765872.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C96E32-1B5C-4B20-A50D-DFB9DBEEFF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9FAD99-465F-48DB-8C63-9A928581B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7600A31-F64D-4AF4-AC5A-B4F2721E5C1C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{725CC1B1-5C1C-48DE-BA93-AFBDB108E7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,54 @@
     <t>CC</t>
   </si>
   <si>
+    <t>79568200</t>
+  </si>
+  <si>
+    <t>JORGE ENRIQUE VISBAL MORENO</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1047455106</t>
+  </si>
+  <si>
+    <t>DAVID PAREDES SEGOVIA</t>
+  </si>
+  <si>
+    <t>1047474476</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS SARMIENTO ROSSO</t>
+  </si>
+  <si>
     <t>1047470413</t>
   </si>
   <si>
@@ -74,58 +122,10 @@
     <t>2109</t>
   </si>
   <si>
-    <t>79568200</t>
-  </si>
-  <si>
-    <t>JORGE ENRIQUE VISBAL MORENO</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>1047455106</t>
-  </si>
-  <si>
-    <t>DAVID PAREDES SEGOVIA</t>
-  </si>
-  <si>
-    <t>1047474476</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS SARMIENTO ROSSO</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
     <t>1002308980</t>
   </si>
   <si>
     <t>ELEANA MAGDALENA HURTADO BABILONIA</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C85722B-7529-1473-2D0A-8283A3201BDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837B5FAD-AF8B-1BCC-204E-DC028A277207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8026F988-9742-4C7F-A66C-FEFBAE02069C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49B87EC-675A-4F09-9DF3-8A8D49779BF8}">
   <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1082,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>36341</v>
@@ -1105,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1134,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1151,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>168000</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1174,10 +1174,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1226,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1266,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1289,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>140000</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>2100000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1312,16 +1312,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
-        <v>168000</v>
+        <v>84000</v>
       </c>
       <c r="G27" s="18">
         <v>2100000</v>
@@ -1335,16 +1335,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F28" s="18">
-        <v>168000</v>
+        <v>84000</v>
       </c>
       <c r="G28" s="18">
         <v>2100000</v>
@@ -1358,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>84000</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>2100000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1381,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>84000</v>
       </c>
       <c r="G30" s="18">
-        <v>908526</v>
+        <v>2100000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1404,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>168000</v>
       </c>
       <c r="G31" s="18">
-        <v>3000000</v>
+        <v>2100000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1427,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F32" s="18">
-        <v>36341</v>
+        <v>168000</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>2100000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1450,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>168000</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>2100000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1473,16 +1473,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G34" s="18">
         <v>908526</v>
@@ -1496,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1542,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F37" s="18">
-        <v>84000</v>
+        <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1565,19 +1565,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F38" s="18">
-        <v>84000</v>
+        <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1588,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1611,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1634,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
@@ -1657,16 +1657,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>30284</v>
       </c>
       <c r="G42" s="18">
         <v>908526</v>
@@ -1680,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
-        <v>84000</v>
+        <v>36341</v>
       </c>
       <c r="G43" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1703,13 +1703,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1726,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
@@ -1749,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F46" s="18">
         <v>36341</v>
@@ -1772,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1795,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1818,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1841,19 +1841,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G50" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1864,19 +1864,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>84000</v>
+        <v>33333</v>
       </c>
       <c r="G51" s="18">
-        <v>2100000</v>
+        <v>3000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1887,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F52" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>908526</v>
+        <v>3000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1910,16 +1910,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F53" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G53" s="18">
         <v>3000000</v>
@@ -1933,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
-        <v>140000</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>2100000</v>
+        <v>3000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1956,19 +1956,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
-        <v>30284</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>908526</v>
+        <v>3000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1979,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18">
-        <v>30284</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>908526</v>
+        <v>3000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2002,19 +2002,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F57" s="24">
-        <v>30284</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="24">
-        <v>908526</v>
+        <v>3000000</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>

--- a/Data/EC/NIT-9014765872.xlsx
+++ b/Data/EC/NIT-9014765872.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9FAD99-465F-48DB-8C63-9A928581B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{412FEBB1-71BC-4434-A9D9-CB1CE2444A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{725CC1B1-5C1C-48DE-BA93-AFBDB108E7C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{883AAB22-4760-49E8-8767-72AA7494FAE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,67 +65,67 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047470413</t>
+  </si>
+  <si>
+    <t>ANGELICA MARIA LORDUY JIMENEZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>79568200</t>
   </si>
   <si>
     <t>JORGE ENRIQUE VISBAL MORENO</t>
   </si>
   <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>1047455106</t>
+  </si>
+  <si>
+    <t>DAVID PAREDES SEGOVIA</t>
+  </si>
+  <si>
+    <t>1047474476</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS SARMIENTO ROSSO</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>1002308980</t>
+  </si>
+  <si>
+    <t>ELEANA MAGDALENA HURTADO BABILONIA</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
     <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1047455106</t>
-  </si>
-  <si>
-    <t>DAVID PAREDES SEGOVIA</t>
-  </si>
-  <si>
-    <t>1047474476</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS SARMIENTO ROSSO</t>
-  </si>
-  <si>
-    <t>1047470413</t>
-  </si>
-  <si>
-    <t>ANGELICA MARIA LORDUY JIMENEZ</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1002308980</t>
-  </si>
-  <si>
-    <t>ELEANA MAGDALENA HURTADO BABILONIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -224,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -237,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -439,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837B5FAD-AF8B-1BCC-204E-DC028A277207}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98526F11-3D4E-CD4B-2D07-6FFB9A726407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49B87EC-675A-4F09-9DF3-8A8D49779BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F577417-5061-4152-AB69-7BAE6482DB77}">
   <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30284</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1082,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>36341</v>
@@ -1105,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1128,13 +1128,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1151,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>168000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>4200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1174,10 +1174,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1203,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>168000</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>4200000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1266,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1289,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>140000</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1312,19 +1312,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" s="18">
-        <v>84000</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>2100000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1335,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>84000</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1358,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>84000</v>
+        <v>168000</v>
       </c>
       <c r="G29" s="18">
-        <v>2100000</v>
+        <v>4200000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1381,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
-        <v>84000</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1404,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
-        <v>168000</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1427,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
-        <v>168000</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>2100000</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1450,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>168000</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>2100000</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1473,19 +1473,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
-        <v>30284</v>
+        <v>84000</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>4200000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1496,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1542,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1565,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1588,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>84000</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>4200000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1611,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1634,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>36341</v>
@@ -1657,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F42" s="18">
-        <v>30284</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1680,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
         <v>36341</v>
@@ -1703,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>36341</v>
+        <v>84000</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>4200000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1726,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
@@ -1749,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F46" s="18">
         <v>36341</v>
@@ -1772,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1795,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1818,19 +1818,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F49" s="18">
-        <v>36341</v>
+        <v>84000</v>
       </c>
       <c r="G49" s="18">
-        <v>908526</v>
+        <v>4200000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1841,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1864,19 +1864,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F51" s="18">
-        <v>33333</v>
+        <v>36341</v>
       </c>
       <c r="G51" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1887,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1910,19 +1910,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F53" s="18">
-        <v>40000</v>
+        <v>30284</v>
       </c>
       <c r="G53" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1933,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>140000</v>
       </c>
       <c r="G54" s="18">
-        <v>3000000</v>
+        <v>4200000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1956,19 +1956,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>30284</v>
       </c>
       <c r="G55" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1979,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F56" s="18">
-        <v>40000</v>
+        <v>30284</v>
       </c>
       <c r="G56" s="18">
-        <v>3000000</v>
+        <v>908526</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2002,19 +2002,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D57" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F57" s="24">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G57" s="24">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
